--- a/Datasets/dummy_Delanteros.xlsx
+++ b/Datasets/dummy_Delanteros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio\Documents\RESPALDO\Trabajos\FC Juarez\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFEDC1-B1DC-4A61-9C9B-26A3BFE89705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE79FE1-C971-4F54-B530-ED4B3AE330DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Jugador</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Goles (excepto los penaltis)</t>
   </si>
   <si>
-    <t>Remates</t>
-  </si>
-  <si>
     <t>Tiros a la portería, %</t>
   </si>
   <si>
@@ -84,10 +81,10 @@
     <t>Precisión pases en profundidad, %</t>
   </si>
   <si>
-    <t>Frecuencia goles por minuto jugado</t>
-  </si>
-  <si>
     <t>dummy</t>
+  </si>
+  <si>
+    <t>Remates/90</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,22 +453,21 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,22 +481,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -523,14 +519,11 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -577,9 +570,6 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
         <v>0</v>
       </c>
     </row>
